--- a/Data_file/import_PO_update.xlsx
+++ b/Data_file/import_PO_update.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$A$488</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1075">
   <si>
     <t>date_order</t>
   </si>
@@ -4567,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N488"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K425" sqref="K425"/>
+    <sheetView showGridLines="0" topLeftCell="A409" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -22516,4 +22517,1042 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_file/import_PO_update.xlsx
+++ b/Data_file/import_PO_update.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$A$488</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$I$1:$I$488</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -4061,7 +4061,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -5191,24 +5191,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M488"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="E364" sqref="E364"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="16.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.33203125" style="1"/>
+    <col min="12" max="13" width="16.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2">
+    <row r="1" spans="1:13" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="49.65" customHeight="1">
+    <row r="3" spans="1:13" ht="49.7" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1006</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="49.65" customHeight="1">
+    <row r="4" spans="1:13" ht="49.7" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1007</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>240</v>
       </c>
       <c r="I4" s="8">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
@@ -5360,7 +5360,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="49.65" customHeight="1">
+    <row r="5" spans="1:13" ht="49.7" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1007</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>240</v>
       </c>
       <c r="I5" s="8">
-        <v>476</v>
+        <v>308</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
@@ -5397,7 +5397,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="61.65" customHeight="1">
+    <row r="6" spans="1:13" ht="61.7" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>1007</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>240</v>
       </c>
       <c r="I6" s="8">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
@@ -5434,7 +5434,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="49.65" customHeight="1">
+    <row r="7" spans="1:13" ht="49.7" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>489</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="49.65" customHeight="1">
+    <row r="8" spans="1:13" ht="49.7" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>489</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="49.65" customHeight="1">
+    <row r="9" spans="1:13" ht="49.7" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>489</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="49.65" customHeight="1">
+    <row r="10" spans="1:13" ht="49.7" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>489</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="49.65" customHeight="1">
+    <row r="11" spans="1:13" ht="49.7" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>489</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="49.65" customHeight="1">
+    <row r="12" spans="1:13" ht="49.7" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>489</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="77.7" customHeight="1">
+    <row r="13" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>489</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="77.7" customHeight="1">
+    <row r="14" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>1008</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="47.7" customHeight="1">
+    <row r="18" spans="1:13" ht="47.65" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>1010</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="49.65" customHeight="1">
+    <row r="24" spans="1:13" ht="49.7" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>1010</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="49.65" customHeight="1">
+    <row r="25" spans="1:13" ht="49.7" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>763</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="28" spans="1:13" ht="35.65" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>798</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="29" spans="1:13" ht="35.65" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>798</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="49.65" customHeight="1">
+    <row r="52" spans="1:13" ht="49.7" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>879</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="49.65" customHeight="1">
+    <row r="53" spans="1:13" ht="49.7" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>958</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="89.7" customHeight="1">
+    <row r="59" spans="1:13" ht="89.65" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>978</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="77.7" customHeight="1">
+    <row r="60" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>981</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="77.7" customHeight="1">
+    <row r="61" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>935</v>
       </c>
       <c r="I61" s="8">
-        <v>500</v>
+        <v>148</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="5"/>
@@ -7469,7 +7469,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="77.7" customHeight="1">
+    <row r="62" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>1500</v>
       </c>
       <c r="I62" s="8">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="5"/>
@@ -7506,7 +7506,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="77.7" customHeight="1">
+    <row r="63" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>1012</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="77.7" customHeight="1">
+    <row r="64" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>1012</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="77.7" customHeight="1">
+    <row r="65" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>800</v>
       </c>
       <c r="I65" s="8">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="5"/>
@@ -7617,7 +7617,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="77.7" customHeight="1">
+    <row r="66" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>400</v>
       </c>
       <c r="I66" s="8">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
@@ -7654,7 +7654,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="77.7" customHeight="1">
+    <row r="67" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>26</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>1380</v>
       </c>
       <c r="I67" s="8">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="5"/>
@@ -7691,7 +7691,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="77.7" customHeight="1">
+    <row r="68" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1330</v>
       </c>
       <c r="I68" s="8">
-        <v>1800</v>
+        <v>391</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="5"/>
@@ -7728,7 +7728,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="77.7" customHeight="1">
+    <row r="69" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>1013</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>1485</v>
       </c>
       <c r="I69" s="8">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="5"/>
@@ -7765,7 +7765,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="77.7" customHeight="1">
+    <row r="70" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>32</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1110</v>
       </c>
       <c r="I70" s="8">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="5"/>
@@ -7828,7 +7828,7 @@
         <v>990</v>
       </c>
       <c r="I71" s="8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="5"/>
@@ -7913,7 +7913,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="77.7" customHeight="1">
+    <row r="74" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>58</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="77.7" customHeight="1">
+    <row r="75" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>1015</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="77.7" customHeight="1">
+    <row r="76" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>950</v>
       </c>
       <c r="I76" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="5"/>
@@ -8024,7 +8024,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="77.7" customHeight="1">
+    <row r="77" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>68</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="77.7" customHeight="1">
+    <row r="78" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>1016</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="77.7" customHeight="1">
+    <row r="79" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>1016</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="77.7" customHeight="1">
+    <row r="80" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>75</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>1370</v>
       </c>
       <c r="I80" s="8">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="5"/>
@@ -8172,7 +8172,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="77.7" customHeight="1">
+    <row r="81" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>1340</v>
       </c>
       <c r="I81" s="8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="5"/>
@@ -8209,7 +8209,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="77.7" customHeight="1">
+    <row r="82" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>75</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="77.7" customHeight="1">
+    <row r="83" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>75</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="77.7" customHeight="1">
+    <row r="84" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>1590</v>
       </c>
       <c r="I84" s="8">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="5"/>
@@ -8320,7 +8320,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="77.7" customHeight="1">
+    <row r="85" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="77.7" customHeight="1">
+    <row r="86" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="133.65" customHeight="1">
+    <row r="87" spans="1:13" ht="133.69999999999999" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>655</v>
       </c>
       <c r="I88" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="5"/>
@@ -8468,7 +8468,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="77.7" customHeight="1">
+    <row r="89" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>309</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="77.7" customHeight="1">
+    <row r="90" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>312</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="77.7" customHeight="1">
+    <row r="91" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="77.7" customHeight="1">
+    <row r="92" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>313</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="77.7" customHeight="1">
+    <row r="93" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>313</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="77.7" customHeight="1">
+    <row r="94" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>313</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="77.7" customHeight="1">
+    <row r="99" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>318</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="77.7" customHeight="1">
+    <row r="100" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>318</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="77.7" customHeight="1">
+    <row r="101" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>328</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="77.7" customHeight="1">
+    <row r="102" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>328</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="97.65" customHeight="1">
+    <row r="103" spans="1:13" ht="97.7" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>328</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="61.65" customHeight="1">
+    <row r="104" spans="1:13" ht="61.7" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>328</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="49.65" customHeight="1">
+    <row r="110" spans="1:13" ht="49.7" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>369</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="76.2" customHeight="1">
+    <row r="111" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>369</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="76.2" customHeight="1">
+    <row r="112" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>382</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="76.2" customHeight="1">
+    <row r="113" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>397</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="76.2" customHeight="1">
+    <row r="114" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>397</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="76.2" customHeight="1">
+    <row r="115" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>397</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="61.65" customHeight="1">
+    <row r="121" spans="1:13" ht="61.7" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>397</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="122" spans="1:13" ht="35.65" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>397</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="49.65" customHeight="1">
+    <row r="123" spans="1:13" ht="49.7" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>1017</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="59.7" customHeight="1">
+    <row r="124" spans="1:13" ht="59.65" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>1017</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="59.7" customHeight="1">
+    <row r="125" spans="1:13" ht="59.65" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>1018</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="89.7" customHeight="1">
+    <row r="130" spans="1:13" ht="89.65" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>1019</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="77.7" customHeight="1">
+    <row r="136" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>1022</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="49.65" customHeight="1">
+    <row r="137" spans="1:13" ht="49.7" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>1023</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="49.65" customHeight="1">
+    <row r="139" spans="1:13" ht="49.7" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>1025</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="49.65" customHeight="1">
+    <row r="140" spans="1:13" ht="49.7" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>1026</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="49.65" customHeight="1">
+    <row r="141" spans="1:13" ht="49.7" customHeight="1">
       <c r="A141" s="10" t="s">
         <v>1027</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="49.65" customHeight="1">
+    <row r="142" spans="1:13" ht="49.7" customHeight="1">
       <c r="A142" s="10" t="s">
         <v>416</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="49.65" customHeight="1">
+    <row r="143" spans="1:13" ht="49.7" customHeight="1">
       <c r="A143" s="10" t="s">
         <v>416</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="49.65" customHeight="1">
+    <row r="144" spans="1:13" ht="49.7" customHeight="1">
       <c r="A144" s="10" t="s">
         <v>423</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="49.65" customHeight="1">
+    <row r="145" spans="1:13" ht="49.7" customHeight="1">
       <c r="A145" s="10" t="s">
         <v>423</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="49.65" customHeight="1">
+    <row r="146" spans="1:13" ht="49.7" customHeight="1">
       <c r="A146" s="10" t="s">
         <v>423</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="49.65" customHeight="1">
+    <row r="147" spans="1:13" ht="49.7" customHeight="1">
       <c r="A147" s="10" t="s">
         <v>423</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="49.65" customHeight="1">
+    <row r="148" spans="1:13" ht="49.7" customHeight="1">
       <c r="A148" s="10" t="s">
         <v>423</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="49.65" customHeight="1">
+    <row r="149" spans="1:13" ht="49.7" customHeight="1">
       <c r="A149" s="10" t="s">
         <v>423</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="49.65" customHeight="1">
+    <row r="150" spans="1:13" ht="49.7" customHeight="1">
       <c r="A150" s="10" t="s">
         <v>423</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="49.65" customHeight="1">
+    <row r="151" spans="1:13" ht="49.7" customHeight="1">
       <c r="A151" s="10" t="s">
         <v>423</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="49.65" customHeight="1">
+    <row r="152" spans="1:13" ht="49.7" customHeight="1">
       <c r="A152" s="10" t="s">
         <v>423</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="49.65" customHeight="1">
+    <row r="153" spans="1:13" ht="49.7" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>423</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="49.65" customHeight="1">
+    <row r="154" spans="1:13" ht="49.7" customHeight="1">
       <c r="A154" s="10" t="s">
         <v>423</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="49.65" customHeight="1">
+    <row r="155" spans="1:13" ht="49.7" customHeight="1">
       <c r="A155" s="10" t="s">
         <v>423</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="49.65" customHeight="1">
+    <row r="156" spans="1:13" ht="49.7" customHeight="1">
       <c r="A156" s="10" t="s">
         <v>423</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="49.65" customHeight="1">
+    <row r="157" spans="1:13" ht="49.7" customHeight="1">
       <c r="A157" s="10" t="s">
         <v>423</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="49.65" customHeight="1">
+    <row r="158" spans="1:13" ht="49.7" customHeight="1">
       <c r="A158" s="10" t="s">
         <v>423</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="49.65" customHeight="1">
+    <row r="159" spans="1:13" ht="49.7" customHeight="1">
       <c r="A159" s="10" t="s">
         <v>423</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="49.65" customHeight="1">
+    <row r="160" spans="1:13" ht="49.7" customHeight="1">
       <c r="A160" s="10" t="s">
         <v>423</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="49.65" customHeight="1">
+    <row r="161" spans="1:13" ht="49.7" customHeight="1">
       <c r="A161" s="10" t="s">
         <v>423</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="49.65" customHeight="1">
+    <row r="162" spans="1:13" ht="49.7" customHeight="1">
       <c r="A162" s="10" t="s">
         <v>423</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="49.65" customHeight="1">
+    <row r="163" spans="1:13" ht="49.7" customHeight="1">
       <c r="A163" s="10" t="s">
         <v>423</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="49.65" customHeight="1">
+    <row r="164" spans="1:13" ht="49.7" customHeight="1">
       <c r="A164" s="10" t="s">
         <v>423</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="49.65" customHeight="1">
+    <row r="165" spans="1:13" ht="49.7" customHeight="1">
       <c r="A165" s="10" t="s">
         <v>466</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="49.65" customHeight="1">
+    <row r="166" spans="1:13" ht="49.7" customHeight="1">
       <c r="A166" s="10" t="s">
         <v>471</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="49.65" customHeight="1">
+    <row r="167" spans="1:13" ht="49.7" customHeight="1">
       <c r="A167" s="10" t="s">
         <v>471</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="49.65" customHeight="1">
+    <row r="168" spans="1:13" ht="49.7" customHeight="1">
       <c r="A168" s="10" t="s">
         <v>471</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="49.65" customHeight="1">
+    <row r="169" spans="1:13" ht="49.7" customHeight="1">
       <c r="A169" s="10" t="s">
         <v>471</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="49.65" customHeight="1">
+    <row r="170" spans="1:13" ht="49.7" customHeight="1">
       <c r="A170" s="10" t="s">
         <v>471</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="49.65" customHeight="1">
+    <row r="171" spans="1:13" ht="49.7" customHeight="1">
       <c r="A171" s="10" t="s">
         <v>471</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="49.65" customHeight="1">
+    <row r="172" spans="1:13" ht="49.7" customHeight="1">
       <c r="A172" s="10" t="s">
         <v>484</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="49.65" customHeight="1">
+    <row r="173" spans="1:13" ht="49.7" customHeight="1">
       <c r="A173" s="10" t="s">
         <v>484</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="49.65" customHeight="1">
+    <row r="174" spans="1:13" ht="49.7" customHeight="1">
       <c r="A174" s="10" t="s">
         <v>504</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="49.65" customHeight="1">
+    <row r="175" spans="1:13" ht="49.7" customHeight="1">
       <c r="A175" s="10" t="s">
         <v>509</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="49.65" customHeight="1">
+    <row r="176" spans="1:13" ht="49.7" customHeight="1">
       <c r="A176" s="10" t="s">
         <v>514</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="49.65" customHeight="1">
+    <row r="177" spans="1:13" ht="49.7" customHeight="1">
       <c r="A177" s="10" t="s">
         <v>524</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="49.65" customHeight="1">
+    <row r="178" spans="1:13" ht="49.7" customHeight="1">
       <c r="A178" s="10" t="s">
         <v>527</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="49.65" customHeight="1">
+    <row r="179" spans="1:13" ht="49.7" customHeight="1">
       <c r="A179" s="10" t="s">
         <v>527</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="49.65" customHeight="1">
+    <row r="180" spans="1:13" ht="49.7" customHeight="1">
       <c r="A180" s="10" t="s">
         <v>527</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="49.65" customHeight="1">
+    <row r="181" spans="1:13" ht="49.7" customHeight="1">
       <c r="A181" s="10" t="s">
         <v>534</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="49.65" customHeight="1">
+    <row r="182" spans="1:13" ht="49.7" customHeight="1">
       <c r="A182" s="10" t="s">
         <v>537</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="49.65" customHeight="1">
+    <row r="183" spans="1:13" ht="49.7" customHeight="1">
       <c r="A183" s="10" t="s">
         <v>537</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="49.65" customHeight="1">
+    <row r="184" spans="1:13" ht="49.7" customHeight="1">
       <c r="A184" s="10" t="s">
         <v>537</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="49.65" customHeight="1">
+    <row r="185" spans="1:13" ht="49.7" customHeight="1">
       <c r="A185" s="10" t="s">
         <v>546</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="49.65" customHeight="1">
+    <row r="186" spans="1:13" ht="49.7" customHeight="1">
       <c r="A186" s="10" t="s">
         <v>546</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="49.65" customHeight="1">
+    <row r="187" spans="1:13" ht="49.7" customHeight="1">
       <c r="A187" s="10" t="s">
         <v>546</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="49.65" customHeight="1">
+    <row r="188" spans="1:13" ht="49.7" customHeight="1">
       <c r="A188" s="10" t="s">
         <v>546</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="49.65" customHeight="1">
+    <row r="189" spans="1:13" ht="49.7" customHeight="1">
       <c r="A189" s="10" t="s">
         <v>546</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="49.65" customHeight="1">
+    <row r="190" spans="1:13" ht="49.7" customHeight="1">
       <c r="A190" s="10" t="s">
         <v>546</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="49.65" customHeight="1">
+    <row r="191" spans="1:13" ht="49.7" customHeight="1">
       <c r="A191" s="10" t="s">
         <v>546</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="49.65" customHeight="1">
+    <row r="192" spans="1:13" ht="49.7" customHeight="1">
       <c r="A192" s="10" t="s">
         <v>546</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="49.65" customHeight="1">
+    <row r="193" spans="1:13" ht="49.7" customHeight="1">
       <c r="A193" s="10" t="s">
         <v>546</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="49.65" customHeight="1">
+    <row r="194" spans="1:13" ht="49.7" customHeight="1">
       <c r="A194" s="10" t="s">
         <v>567</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="49.65" customHeight="1">
+    <row r="195" spans="1:13" ht="49.7" customHeight="1">
       <c r="A195" s="10" t="s">
         <v>567</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="49.65" customHeight="1">
+    <row r="196" spans="1:13" ht="49.7" customHeight="1">
       <c r="A196" s="10" t="s">
         <v>574</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="49.65" customHeight="1">
+    <row r="197" spans="1:13" ht="49.7" customHeight="1">
       <c r="A197" s="10" t="s">
         <v>577</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>500</v>
       </c>
       <c r="I197" s="8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J197" s="8"/>
       <c r="K197" s="9"/>
@@ -12501,7 +12501,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="49.65" customHeight="1">
+    <row r="198" spans="1:13" ht="49.7" customHeight="1">
       <c r="A198" s="10" t="s">
         <v>582</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>500</v>
       </c>
       <c r="I198" s="8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J198" s="8"/>
       <c r="K198" s="9"/>
@@ -12538,7 +12538,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="49.65" customHeight="1">
+    <row r="199" spans="1:13" ht="49.7" customHeight="1">
       <c r="A199" s="10" t="s">
         <v>583</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>577</v>
       </c>
       <c r="I199" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J199" s="8"/>
       <c r="K199" s="9"/>
@@ -12575,7 +12575,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="49.65" customHeight="1">
+    <row r="200" spans="1:13" ht="49.7" customHeight="1">
       <c r="A200" s="10" t="s">
         <v>586</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>1435</v>
       </c>
       <c r="I200" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J200" s="8"/>
       <c r="K200" s="9"/>
@@ -12612,7 +12612,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="49.65" customHeight="1">
+    <row r="201" spans="1:13" ht="49.7" customHeight="1">
       <c r="A201" s="10" t="s">
         <v>591</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="49.65" customHeight="1">
+    <row r="202" spans="1:13" ht="49.7" customHeight="1">
       <c r="A202" s="10" t="s">
         <v>596</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>577</v>
       </c>
       <c r="I202" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J202" s="8"/>
       <c r="K202" s="9"/>
@@ -12686,7 +12686,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="49.65" customHeight="1">
+    <row r="203" spans="1:13" ht="49.7" customHeight="1">
       <c r="A203" s="10" t="s">
         <v>596</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>577</v>
       </c>
       <c r="I203" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J203" s="8"/>
       <c r="K203" s="9"/>
@@ -12723,7 +12723,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="49.65" customHeight="1">
+    <row r="204" spans="1:13" ht="49.7" customHeight="1">
       <c r="A204" s="10" t="s">
         <v>601</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="49.65" customHeight="1">
+    <row r="205" spans="1:13" ht="49.7" customHeight="1">
       <c r="A205" s="10" t="s">
         <v>606</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="49.65" customHeight="1">
+    <row r="206" spans="1:13" ht="49.7" customHeight="1">
       <c r="A206" s="10" t="s">
         <v>609</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="49.65" customHeight="1">
+    <row r="207" spans="1:13" ht="49.7" customHeight="1">
       <c r="A207" s="10" t="s">
         <v>614</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="49.65" customHeight="1">
+    <row r="208" spans="1:13" ht="49.7" customHeight="1">
       <c r="A208" s="10" t="s">
         <v>619</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="49.65" customHeight="1">
+    <row r="209" spans="1:13" ht="49.7" customHeight="1">
       <c r="A209" s="10" t="s">
         <v>622</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="49.65" customHeight="1">
+    <row r="210" spans="1:13" ht="49.7" customHeight="1">
       <c r="A210" s="10" t="s">
         <v>622</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="49.65" customHeight="1">
+    <row r="211" spans="1:13" ht="49.7" customHeight="1">
       <c r="A211" s="10" t="s">
         <v>622</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="49.65" customHeight="1">
+    <row r="212" spans="1:13" ht="49.7" customHeight="1">
       <c r="A212" s="10" t="s">
         <v>622</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="49.65" customHeight="1">
+    <row r="213" spans="1:13" ht="49.7" customHeight="1">
       <c r="A213" s="10" t="s">
         <v>633</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="49.65" customHeight="1">
+    <row r="214" spans="1:13" ht="49.7" customHeight="1">
       <c r="A214" s="10" t="s">
         <v>633</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="49.65" customHeight="1">
+    <row r="215" spans="1:13" ht="49.7" customHeight="1">
       <c r="A215" s="10" t="s">
         <v>638</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="49.65" customHeight="1">
+    <row r="216" spans="1:13" ht="49.7" customHeight="1">
       <c r="A216" s="10" t="s">
         <v>643</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="49.65" customHeight="1">
+    <row r="217" spans="1:13" ht="49.7" customHeight="1">
       <c r="A217" s="10" t="s">
         <v>643</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="49.65" customHeight="1">
+    <row r="218" spans="1:13" ht="49.7" customHeight="1">
       <c r="A218" s="10" t="s">
         <v>650</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="49.65" customHeight="1">
+    <row r="219" spans="1:13" ht="49.7" customHeight="1">
       <c r="A219" s="10" t="s">
         <v>655</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="49.65" customHeight="1">
+    <row r="220" spans="1:13" ht="49.7" customHeight="1">
       <c r="A220" s="10" t="s">
         <v>660</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="49.65" customHeight="1">
+    <row r="221" spans="1:13" ht="49.7" customHeight="1">
       <c r="A221" s="10" t="s">
         <v>663</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="49.65" customHeight="1">
+    <row r="222" spans="1:13" ht="49.7" customHeight="1">
       <c r="A222" s="10" t="s">
         <v>663</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="49.65" customHeight="1">
+    <row r="223" spans="1:13" ht="49.7" customHeight="1">
       <c r="A223" s="10" t="s">
         <v>670</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="49.65" customHeight="1">
+    <row r="224" spans="1:13" ht="49.7" customHeight="1">
       <c r="A224" s="10" t="s">
         <v>670</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="49.65" customHeight="1">
+    <row r="225" spans="1:13" ht="49.7" customHeight="1">
       <c r="A225" s="10" t="s">
         <v>677</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="49.65" customHeight="1">
+    <row r="226" spans="1:13" ht="49.7" customHeight="1">
       <c r="A226" s="10" t="s">
         <v>680</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="49.65" customHeight="1">
+    <row r="227" spans="1:13" ht="49.7" customHeight="1">
       <c r="A227" s="10" t="s">
         <v>680</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="49.65" customHeight="1">
+    <row r="228" spans="1:13" ht="49.7" customHeight="1">
       <c r="A228" s="10" t="s">
         <v>687</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="49.65" customHeight="1">
+    <row r="229" spans="1:13" ht="49.7" customHeight="1">
       <c r="A229" s="10" t="s">
         <v>687</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="49.65" customHeight="1">
+    <row r="230" spans="1:13" ht="49.7" customHeight="1">
       <c r="A230" s="10" t="s">
         <v>694</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="49.65" customHeight="1">
+    <row r="231" spans="1:13" ht="49.7" customHeight="1">
       <c r="A231" s="10" t="s">
         <v>699</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="49.65" customHeight="1">
+    <row r="232" spans="1:13" ht="49.7" customHeight="1">
       <c r="A232" s="10" t="s">
         <v>702</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="49.65" customHeight="1">
+    <row r="233" spans="1:13" ht="49.7" customHeight="1">
       <c r="A233" s="10" t="s">
         <v>702</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="49.65" customHeight="1">
+    <row r="234" spans="1:13" ht="49.7" customHeight="1">
       <c r="A234" s="10" t="s">
         <v>702</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="49.65" customHeight="1">
+    <row r="235" spans="1:13" ht="49.7" customHeight="1">
       <c r="A235" s="10" t="s">
         <v>702</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="49.65" customHeight="1">
+    <row r="236" spans="1:13" ht="49.7" customHeight="1">
       <c r="A236" s="10" t="s">
         <v>702</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="49.65" customHeight="1">
+    <row r="237" spans="1:13" ht="49.7" customHeight="1">
       <c r="A237" s="10" t="s">
         <v>715</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="49.65" customHeight="1">
+    <row r="238" spans="1:13" ht="49.7" customHeight="1">
       <c r="A238" s="10" t="s">
         <v>718</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="49.65" customHeight="1">
+    <row r="239" spans="1:13" ht="49.7" customHeight="1">
       <c r="A239" s="10" t="s">
         <v>718</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="49.65" customHeight="1">
+    <row r="240" spans="1:13" ht="49.7" customHeight="1">
       <c r="A240" s="10" t="s">
         <v>724</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="49.65" customHeight="1">
+    <row r="241" spans="1:13" ht="49.7" customHeight="1">
       <c r="A241" s="10" t="s">
         <v>727</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="49.65" customHeight="1">
+    <row r="242" spans="1:13" ht="49.7" customHeight="1">
       <c r="A242" s="10" t="s">
         <v>730</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="49.65" customHeight="1">
+    <row r="243" spans="1:13" ht="49.7" customHeight="1">
       <c r="A243" s="10" t="s">
         <v>735</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="49.65" customHeight="1">
+    <row r="244" spans="1:13" ht="49.7" customHeight="1">
       <c r="A244" s="10" t="s">
         <v>738</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="49.65" customHeight="1">
+    <row r="245" spans="1:13" ht="49.7" customHeight="1">
       <c r="A245" s="10" t="s">
         <v>738</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="49.65" customHeight="1">
+    <row r="246" spans="1:13" ht="49.7" customHeight="1">
       <c r="A246" s="10" t="s">
         <v>738</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="49.65" customHeight="1">
+    <row r="247" spans="1:13" ht="49.7" customHeight="1">
       <c r="A247" s="10" t="s">
         <v>738</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="49.65" customHeight="1">
+    <row r="248" spans="1:13" ht="49.7" customHeight="1">
       <c r="A248" s="10" t="s">
         <v>749</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="49.65" customHeight="1">
+    <row r="249" spans="1:13" ht="49.7" customHeight="1">
       <c r="A249" s="10" t="s">
         <v>749</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="49.65" customHeight="1">
+    <row r="250" spans="1:13" ht="49.7" customHeight="1">
       <c r="A250" s="10" t="s">
         <v>749</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="49.65" customHeight="1">
+    <row r="251" spans="1:13" ht="49.7" customHeight="1">
       <c r="A251" s="10" t="s">
         <v>758</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="49.65" customHeight="1">
+    <row r="252" spans="1:13" ht="49.7" customHeight="1">
       <c r="A252" s="10" t="s">
         <v>763</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="49.65" customHeight="1">
+    <row r="253" spans="1:13" ht="49.7" customHeight="1">
       <c r="A253" s="10" t="s">
         <v>773</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="49.65" customHeight="1">
+    <row r="254" spans="1:13" ht="49.7" customHeight="1">
       <c r="A254" s="10" t="s">
         <v>773</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="49.65" customHeight="1">
+    <row r="255" spans="1:13" ht="49.7" customHeight="1">
       <c r="A255" s="10" t="s">
         <v>773</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="49.65" customHeight="1">
+    <row r="256" spans="1:13" ht="49.7" customHeight="1">
       <c r="A256" s="10" t="s">
         <v>773</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="49.65" customHeight="1">
+    <row r="257" spans="1:13" ht="49.7" customHeight="1">
       <c r="A257" s="10" t="s">
         <v>773</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="49.65" customHeight="1">
+    <row r="258" spans="1:13" ht="49.7" customHeight="1">
       <c r="A258" s="10" t="s">
         <v>773</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="49.65" customHeight="1">
+    <row r="259" spans="1:13" ht="49.7" customHeight="1">
       <c r="A259" s="10" t="s">
         <v>773</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="49.65" customHeight="1">
+    <row r="260" spans="1:13" ht="49.7" customHeight="1">
       <c r="A260" s="10" t="s">
         <v>773</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="49.65" customHeight="1">
+    <row r="261" spans="1:13" ht="49.7" customHeight="1">
       <c r="A261" s="10" t="s">
         <v>788</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="49.65" customHeight="1">
+    <row r="262" spans="1:13" ht="49.7" customHeight="1">
       <c r="A262" s="10" t="s">
         <v>793</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="49.65" customHeight="1">
+    <row r="263" spans="1:13" ht="49.7" customHeight="1">
       <c r="A263" s="10" t="s">
         <v>824</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="49.65" customHeight="1">
+    <row r="264" spans="1:13" ht="49.7" customHeight="1">
       <c r="A264" s="10" t="s">
         <v>825</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="49.65" customHeight="1">
+    <row r="265" spans="1:13" ht="49.7" customHeight="1">
       <c r="A265" s="10" t="s">
         <v>825</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="49.65" customHeight="1">
+    <row r="266" spans="1:13" ht="49.7" customHeight="1">
       <c r="A266" s="10" t="s">
         <v>825</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="49.65" customHeight="1">
+    <row r="267" spans="1:13" ht="49.7" customHeight="1">
       <c r="A267" s="10" t="s">
         <v>825</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="49.65" customHeight="1">
+    <row r="268" spans="1:13" ht="49.7" customHeight="1">
       <c r="A268" s="10" t="s">
         <v>830</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="49.65" customHeight="1">
+    <row r="269" spans="1:13" ht="49.7" customHeight="1">
       <c r="A269" s="10" t="s">
         <v>831</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="49.65" customHeight="1">
+    <row r="270" spans="1:13" ht="49.7" customHeight="1">
       <c r="A270" s="10" t="s">
         <v>834</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="49.65" customHeight="1">
+    <row r="271" spans="1:13" ht="49.7" customHeight="1">
       <c r="A271" s="10" t="s">
         <v>835</v>
       </c>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="M271" s="9"/>
     </row>
-    <row r="272" spans="1:13" ht="49.65" customHeight="1">
+    <row r="272" spans="1:13" ht="49.7" customHeight="1">
       <c r="A272" s="10" t="s">
         <v>835</v>
       </c>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="M272" s="9"/>
     </row>
-    <row r="273" spans="1:13" ht="49.65" customHeight="1">
+    <row r="273" spans="1:13" ht="49.7" customHeight="1">
       <c r="A273" s="10" t="s">
         <v>835</v>
       </c>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="M273" s="9"/>
     </row>
-    <row r="274" spans="1:13" ht="49.65" customHeight="1">
+    <row r="274" spans="1:13" ht="49.7" customHeight="1">
       <c r="A274" s="10" t="s">
         <v>840</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="49.65" customHeight="1">
+    <row r="275" spans="1:13" ht="49.7" customHeight="1">
       <c r="A275" s="10" t="s">
         <v>840</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="49.65" customHeight="1">
+    <row r="276" spans="1:13" ht="49.7" customHeight="1">
       <c r="A276" s="10" t="s">
         <v>840</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="49.65" customHeight="1">
+    <row r="277" spans="1:13" ht="49.7" customHeight="1">
       <c r="A277" s="10" t="s">
         <v>840</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="49.65" customHeight="1">
+    <row r="278" spans="1:13" ht="49.7" customHeight="1">
       <c r="A278" s="10" t="s">
         <v>840</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="49.65" customHeight="1">
+    <row r="279" spans="1:13" ht="49.7" customHeight="1">
       <c r="A279" s="10" t="s">
         <v>849</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="49.65" customHeight="1">
+    <row r="280" spans="1:13" ht="49.7" customHeight="1">
       <c r="A280" s="10" t="s">
         <v>859</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="49.65" customHeight="1">
+    <row r="281" spans="1:13" ht="49.7" customHeight="1">
       <c r="A281" s="10" t="s">
         <v>862</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="49.65" customHeight="1">
+    <row r="282" spans="1:13" ht="49.7" customHeight="1">
       <c r="A282" s="10" t="s">
         <v>865</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="49.65" customHeight="1">
+    <row r="283" spans="1:13" ht="49.7" customHeight="1">
       <c r="A283" s="10" t="s">
         <v>865</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="49.65" customHeight="1">
+    <row r="284" spans="1:13" ht="49.7" customHeight="1">
       <c r="A284" s="10" t="s">
         <v>865</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="49.65" customHeight="1">
+    <row r="285" spans="1:13" ht="49.7" customHeight="1">
       <c r="A285" s="10" t="s">
         <v>872</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="49.65" customHeight="1">
+    <row r="286" spans="1:13" ht="49.7" customHeight="1">
       <c r="A286" s="10" t="s">
         <v>872</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="49.65" customHeight="1">
+    <row r="287" spans="1:13" ht="49.7" customHeight="1">
       <c r="A287" s="10" t="s">
         <v>882</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="49.65" customHeight="1">
+    <row r="288" spans="1:13" ht="49.7" customHeight="1">
       <c r="A288" s="10" t="s">
         <v>882</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="49.65" customHeight="1">
+    <row r="289" spans="1:13" ht="49.7" customHeight="1">
       <c r="A289" s="10" t="s">
         <v>882</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="49.65" customHeight="1">
+    <row r="290" spans="1:13" ht="49.7" customHeight="1">
       <c r="A290" s="10" t="s">
         <v>882</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="49.65" customHeight="1">
+    <row r="291" spans="1:13" ht="49.7" customHeight="1">
       <c r="A291" s="10" t="s">
         <v>882</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="49.65" customHeight="1">
+    <row r="292" spans="1:13" ht="49.7" customHeight="1">
       <c r="A292" s="10" t="s">
         <v>891</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="49.65" customHeight="1">
+    <row r="293" spans="1:13" ht="49.7" customHeight="1">
       <c r="A293" s="10" t="s">
         <v>896</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="49.65" customHeight="1">
+    <row r="294" spans="1:13" ht="49.7" customHeight="1">
       <c r="A294" s="10" t="s">
         <v>896</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="49.65" customHeight="1">
+    <row r="295" spans="1:13" ht="49.7" customHeight="1">
       <c r="A295" s="10" t="s">
         <v>903</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="49.65" customHeight="1">
+    <row r="296" spans="1:13" ht="49.7" customHeight="1">
       <c r="A296" s="10" t="s">
         <v>903</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="49.65" customHeight="1">
+    <row r="297" spans="1:13" ht="49.7" customHeight="1">
       <c r="A297" s="10" t="s">
         <v>903</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="49.65" customHeight="1">
+    <row r="298" spans="1:13" ht="49.7" customHeight="1">
       <c r="A298" s="10" t="s">
         <v>903</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="49.65" customHeight="1">
+    <row r="299" spans="1:13" ht="49.7" customHeight="1">
       <c r="A299" s="10" t="s">
         <v>903</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="49.65" customHeight="1">
+    <row r="300" spans="1:13" ht="49.7" customHeight="1">
       <c r="A300" s="10" t="s">
         <v>910</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="49.65" customHeight="1">
+    <row r="301" spans="1:13" ht="49.7" customHeight="1">
       <c r="A301" s="10" t="s">
         <v>910</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="49.65" customHeight="1">
+    <row r="302" spans="1:13" ht="49.7" customHeight="1">
       <c r="A302" s="10" t="s">
         <v>910</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="49.65" customHeight="1">
+    <row r="303" spans="1:13" ht="49.7" customHeight="1">
       <c r="A303" s="10" t="s">
         <v>910</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="49.65" customHeight="1">
+    <row r="304" spans="1:13" ht="49.7" customHeight="1">
       <c r="A304" s="10" t="s">
         <v>910</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="49.65" customHeight="1">
+    <row r="305" spans="1:13" ht="49.7" customHeight="1">
       <c r="A305" s="10" t="s">
         <v>910</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="49.65" customHeight="1">
+    <row r="306" spans="1:13" ht="49.7" customHeight="1">
       <c r="A306" s="10" t="s">
         <v>910</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="49.65" customHeight="1">
+    <row r="307" spans="1:13" ht="49.7" customHeight="1">
       <c r="A307" s="10" t="s">
         <v>910</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="49.65" customHeight="1">
+    <row r="308" spans="1:13" ht="49.7" customHeight="1">
       <c r="A308" s="10" t="s">
         <v>910</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="49.65" customHeight="1">
+    <row r="309" spans="1:13" ht="49.7" customHeight="1">
       <c r="A309" s="10" t="s">
         <v>910</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="49.65" customHeight="1">
+    <row r="310" spans="1:13" ht="49.7" customHeight="1">
       <c r="A310" s="10" t="s">
         <v>910</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="49.65" customHeight="1">
+    <row r="311" spans="1:13" ht="49.7" customHeight="1">
       <c r="A311" s="10" t="s">
         <v>910</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="49.65" customHeight="1">
+    <row r="312" spans="1:13" ht="49.7" customHeight="1">
       <c r="A312" s="10" t="s">
         <v>931</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="49.65" customHeight="1">
+    <row r="313" spans="1:13" ht="49.7" customHeight="1">
       <c r="A313" s="10" t="s">
         <v>936</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="49.65" customHeight="1">
+    <row r="314" spans="1:13" ht="49.7" customHeight="1">
       <c r="A314" s="10" t="s">
         <v>936</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="49.65" customHeight="1">
+    <row r="315" spans="1:13" ht="49.7" customHeight="1">
       <c r="A315" s="10" t="s">
         <v>937</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="49.65" customHeight="1">
+    <row r="316" spans="1:13" ht="49.7" customHeight="1">
       <c r="A316" s="10" t="s">
         <v>938</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="49.65" customHeight="1">
+    <row r="317" spans="1:13" ht="49.7" customHeight="1">
       <c r="A317" s="10" t="s">
         <v>939</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="49.65" customHeight="1">
+    <row r="318" spans="1:13" ht="49.7" customHeight="1">
       <c r="A318" s="10" t="s">
         <v>939</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="49.65" customHeight="1">
+    <row r="319" spans="1:13" ht="49.7" customHeight="1">
       <c r="A319" s="10" t="s">
         <v>940</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="49.65" customHeight="1">
+    <row r="320" spans="1:13" ht="49.7" customHeight="1">
       <c r="A320" s="10" t="s">
         <v>945</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="49.65" customHeight="1">
+    <row r="321" spans="1:13" ht="49.7" customHeight="1">
       <c r="A321" s="10" t="s">
         <v>948</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="49.65" customHeight="1">
+    <row r="322" spans="1:13" ht="49.7" customHeight="1">
       <c r="A322" s="10" t="s">
         <v>951</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="49.65" customHeight="1">
+    <row r="323" spans="1:13" ht="49.7" customHeight="1">
       <c r="A323" s="10" t="s">
         <v>952</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="49.65" customHeight="1">
+    <row r="324" spans="1:13" ht="49.7" customHeight="1">
       <c r="A324" s="10" t="s">
         <v>955</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="49.65" customHeight="1">
+    <row r="325" spans="1:13" ht="49.7" customHeight="1">
       <c r="A325" s="10" t="s">
         <v>955</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="49.65" customHeight="1">
+    <row r="326" spans="1:13" ht="49.7" customHeight="1">
       <c r="A326" s="10" t="s">
         <v>958</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="49.65" customHeight="1">
+    <row r="327" spans="1:13" ht="49.7" customHeight="1">
       <c r="A327" s="10" t="s">
         <v>969</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="49.65" customHeight="1">
+    <row r="328" spans="1:13" ht="49.7" customHeight="1">
       <c r="A328" s="10" t="s">
         <v>973</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="49.65" customHeight="1">
+    <row r="329" spans="1:13" ht="49.7" customHeight="1">
       <c r="A329" s="10" t="s">
         <v>981</v>
       </c>
@@ -17379,7 +17379,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="49.65" customHeight="1">
+    <row r="330" spans="1:13" ht="49.7" customHeight="1">
       <c r="A330" s="10" t="s">
         <v>1028</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="49.65" customHeight="1">
+    <row r="331" spans="1:13" ht="49.7" customHeight="1">
       <c r="A331" s="10" t="s">
         <v>328</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="49.65" customHeight="1">
+    <row r="332" spans="1:13" ht="49.7" customHeight="1">
       <c r="A332" s="10" t="s">
         <v>328</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="49.65" customHeight="1">
+    <row r="333" spans="1:13" ht="49.7" customHeight="1">
       <c r="A333" s="10" t="s">
         <v>328</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="49.65" customHeight="1">
+    <row r="334" spans="1:13" ht="49.7" customHeight="1">
       <c r="A334" s="10" t="s">
         <v>328</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="49.65" customHeight="1">
+    <row r="335" spans="1:13" ht="49.7" customHeight="1">
       <c r="A335" s="10" t="s">
         <v>328</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="49.65" customHeight="1">
+    <row r="336" spans="1:13" ht="49.7" customHeight="1">
       <c r="A336" s="10" t="s">
         <v>68</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>100</v>
       </c>
       <c r="I336" s="8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J336" s="8"/>
       <c r="K336" s="9"/>
@@ -17638,7 +17638,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="49.65" customHeight="1">
+    <row r="337" spans="1:13" ht="49.7" customHeight="1">
       <c r="A337" s="10" t="s">
         <v>68</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>65</v>
       </c>
       <c r="I337" s="8">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="J337" s="8"/>
       <c r="K337" s="9"/>
@@ -17675,7 +17675,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="49.65" customHeight="1">
+    <row r="338" spans="1:13" ht="49.7" customHeight="1">
       <c r="A338" s="10" t="s">
         <v>47</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>65</v>
       </c>
       <c r="I338" s="8">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="J338" s="8"/>
       <c r="K338" s="9"/>
@@ -17712,7 +17712,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="49.65" customHeight="1">
+    <row r="339" spans="1:13" ht="49.7" customHeight="1">
       <c r="A339" s="10" t="s">
         <v>277</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="49.65" customHeight="1">
+    <row r="340" spans="1:13" ht="49.7" customHeight="1">
       <c r="A340" s="10" t="s">
         <v>263</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="49.65" customHeight="1">
+    <row r="341" spans="1:13" ht="49.7" customHeight="1">
       <c r="A341" s="10" t="s">
         <v>263</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="49.65" customHeight="1">
+    <row r="342" spans="1:13" ht="49.7" customHeight="1">
       <c r="A342" s="10" t="s">
         <v>242</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="49.65" customHeight="1">
+    <row r="343" spans="1:13" ht="49.7" customHeight="1">
       <c r="A343" s="10" t="s">
         <v>168</v>
       </c>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="M343" s="5"/>
     </row>
-    <row r="344" spans="1:13" ht="49.65" customHeight="1">
+    <row r="344" spans="1:13" ht="49.7" customHeight="1">
       <c r="A344" s="10" t="s">
         <v>168</v>
       </c>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="M344" s="5"/>
     </row>
-    <row r="345" spans="1:13" ht="49.65" customHeight="1">
+    <row r="345" spans="1:13" ht="49.7" customHeight="1">
       <c r="A345" s="10" t="s">
         <v>168</v>
       </c>
@@ -17965,7 +17965,7 @@
       </c>
       <c r="M345" s="5"/>
     </row>
-    <row r="346" spans="1:13" ht="49.65" customHeight="1">
+    <row r="346" spans="1:13" ht="49.7" customHeight="1">
       <c r="A346" s="10" t="s">
         <v>168</v>
       </c>
@@ -18000,7 +18000,7 @@
       </c>
       <c r="M346" s="5"/>
     </row>
-    <row r="347" spans="1:13" ht="49.65" customHeight="1">
+    <row r="347" spans="1:13" ht="49.7" customHeight="1">
       <c r="A347" s="10" t="s">
         <v>197</v>
       </c>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="M347" s="5"/>
     </row>
-    <row r="348" spans="1:13" ht="49.65" customHeight="1">
+    <row r="348" spans="1:13" ht="49.7" customHeight="1">
       <c r="A348" s="10" t="s">
         <v>197</v>
       </c>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="M348" s="5"/>
     </row>
-    <row r="349" spans="1:13" ht="49.65" customHeight="1">
+    <row r="349" spans="1:13" ht="49.7" customHeight="1">
       <c r="A349" s="10" t="s">
         <v>197</v>
       </c>
@@ -18105,7 +18105,7 @@
       </c>
       <c r="M349" s="5"/>
     </row>
-    <row r="350" spans="1:13" ht="49.65" customHeight="1">
+    <row r="350" spans="1:13" ht="49.7" customHeight="1">
       <c r="A350" s="10" t="s">
         <v>197</v>
       </c>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="M350" s="5"/>
     </row>
-    <row r="351" spans="1:13" ht="49.65" customHeight="1">
+    <row r="351" spans="1:13" ht="49.7" customHeight="1">
       <c r="A351" s="10" t="s">
         <v>251</v>
       </c>
@@ -18175,7 +18175,7 @@
       </c>
       <c r="M351" s="5"/>
     </row>
-    <row r="352" spans="1:13" ht="49.65" customHeight="1">
+    <row r="352" spans="1:13" ht="49.7" customHeight="1">
       <c r="A352" s="10" t="s">
         <v>254</v>
       </c>
@@ -18210,7 +18210,7 @@
       </c>
       <c r="M352" s="5"/>
     </row>
-    <row r="353" spans="1:13" ht="49.65" customHeight="1">
+    <row r="353" spans="1:13" ht="49.7" customHeight="1">
       <c r="A353" s="10" t="s">
         <v>281</v>
       </c>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="M353" s="5"/>
     </row>
-    <row r="354" spans="1:13" ht="49.65" customHeight="1">
+    <row r="354" spans="1:13" ht="49.7" customHeight="1">
       <c r="A354" s="10" t="s">
         <v>186</v>
       </c>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="M354" s="5"/>
     </row>
-    <row r="355" spans="1:13" ht="49.65" customHeight="1">
+    <row r="355" spans="1:13" ht="49.7" customHeight="1">
       <c r="A355" s="10" t="s">
         <v>186</v>
       </c>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="M355" s="5"/>
     </row>
-    <row r="356" spans="1:13" ht="49.65" customHeight="1">
+    <row r="356" spans="1:13" ht="49.7" customHeight="1">
       <c r="A356" s="10" t="s">
         <v>186</v>
       </c>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="M356" s="5"/>
     </row>
-    <row r="357" spans="1:13" ht="49.65" customHeight="1">
+    <row r="357" spans="1:13" ht="49.7" customHeight="1">
       <c r="A357" s="10" t="s">
         <v>186</v>
       </c>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="M357" s="5"/>
     </row>
-    <row r="358" spans="1:13" ht="49.65" customHeight="1">
+    <row r="358" spans="1:13" ht="49.7" customHeight="1">
       <c r="A358" s="10" t="s">
         <v>186</v>
       </c>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="M358" s="5"/>
     </row>
-    <row r="359" spans="1:13" ht="49.65" customHeight="1">
+    <row r="359" spans="1:13" ht="49.7" customHeight="1">
       <c r="A359" s="10" t="s">
         <v>186</v>
       </c>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="M359" s="5"/>
     </row>
-    <row r="360" spans="1:13" ht="49.65" customHeight="1">
+    <row r="360" spans="1:13" ht="49.7" customHeight="1">
       <c r="A360" s="10" t="s">
         <v>1029</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="49.65" customHeight="1">
+    <row r="361" spans="1:13" ht="49.7" customHeight="1">
       <c r="A361" s="10" t="s">
         <v>226</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="49.65" customHeight="1">
+    <row r="362" spans="1:13" ht="49.7" customHeight="1">
       <c r="A362" s="10" t="s">
         <v>255</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="49.65" customHeight="1">
+    <row r="363" spans="1:13" ht="49.7" customHeight="1">
       <c r="A363" s="10" t="s">
         <v>258</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="49.65" customHeight="1">
+    <row r="364" spans="1:13" ht="49.7" customHeight="1">
       <c r="A364" s="10" t="s">
         <v>347</v>
       </c>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="M364" s="9"/>
     </row>
-    <row r="365" spans="1:13" ht="49.65" customHeight="1">
+    <row r="365" spans="1:13" ht="49.7" customHeight="1">
       <c r="A365" s="10" t="s">
         <v>52</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>310</v>
       </c>
       <c r="I365" s="8">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="J365" s="8"/>
       <c r="K365" s="9"/>
@@ -18675,7 +18675,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="49.65" customHeight="1">
+    <row r="366" spans="1:13" ht="49.7" customHeight="1">
       <c r="A366" s="10" t="s">
         <v>44</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>820</v>
       </c>
       <c r="I366" s="8">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="J366" s="8"/>
       <c r="K366" s="9"/>
@@ -18712,7 +18712,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="49.65" customHeight="1">
+    <row r="367" spans="1:13" ht="49.7" customHeight="1">
       <c r="A367" s="10" t="s">
         <v>21</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>800</v>
       </c>
       <c r="I367" s="8">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="J367" s="8"/>
       <c r="K367" s="9"/>
@@ -18749,7 +18749,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="49.65" customHeight="1">
+    <row r="368" spans="1:13" ht="49.7" customHeight="1">
       <c r="A368" s="10" t="s">
         <v>21</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>400</v>
       </c>
       <c r="I368" s="8">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="J368" s="8"/>
       <c r="K368" s="9"/>
@@ -18786,7 +18786,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="49.65" customHeight="1">
+    <row r="369" spans="1:13" ht="49.7" customHeight="1">
       <c r="A369" s="10" t="s">
         <v>37</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>4250</v>
       </c>
       <c r="I369" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J369" s="8"/>
       <c r="K369" s="9"/>
@@ -18823,7 +18823,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="49.65" customHeight="1">
+    <row r="370" spans="1:13" ht="49.7" customHeight="1">
       <c r="A370" s="10" t="s">
         <v>37</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="49.65" customHeight="1">
+    <row r="371" spans="1:13" ht="49.7" customHeight="1">
       <c r="A371" s="10" t="s">
         <v>58</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="49.65" customHeight="1">
+    <row r="372" spans="1:13" ht="49.7" customHeight="1">
       <c r="A372" s="10" t="s">
         <v>58</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="49.65" customHeight="1">
+    <row r="373" spans="1:13" ht="49.7" customHeight="1">
       <c r="A373" s="10" t="s">
         <v>58</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="49.65" customHeight="1">
+    <row r="374" spans="1:13" ht="49.7" customHeight="1">
       <c r="A374" s="10" t="s">
         <v>127</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="49.65" customHeight="1">
+    <row r="375" spans="1:13" ht="49.7" customHeight="1">
       <c r="A375" s="10" t="s">
         <v>127</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="49.65" customHeight="1">
+    <row r="376" spans="1:13" ht="49.7" customHeight="1">
       <c r="A376" s="10" t="s">
         <v>127</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="49.65" customHeight="1">
+    <row r="377" spans="1:13" ht="49.7" customHeight="1">
       <c r="A377" s="10" t="s">
         <v>127</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="49.65" customHeight="1">
+    <row r="378" spans="1:13" ht="49.7" customHeight="1">
       <c r="A378" s="10" t="s">
         <v>389</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="49.65" customHeight="1">
+    <row r="379" spans="1:13" ht="49.7" customHeight="1">
       <c r="A379" s="10" t="s">
         <v>120</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="49.65" customHeight="1">
+    <row r="380" spans="1:13" ht="49.7" customHeight="1">
       <c r="A380" s="10" t="s">
         <v>120</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="49.65" customHeight="1">
+    <row r="381" spans="1:13" ht="49.7" customHeight="1">
       <c r="A381" s="10" t="s">
         <v>313</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="49.65" customHeight="1">
+    <row r="382" spans="1:13" ht="49.7" customHeight="1">
       <c r="A382" s="10" t="s">
         <v>29</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>1330</v>
       </c>
       <c r="I382" s="8">
-        <v>1800</v>
+        <v>391</v>
       </c>
       <c r="J382" s="8"/>
       <c r="K382" s="9"/>
@@ -19304,7 +19304,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="49.65" customHeight="1">
+    <row r="383" spans="1:13" ht="49.7" customHeight="1">
       <c r="A383" s="10" t="s">
         <v>47</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>1510</v>
       </c>
       <c r="I383" s="8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J383" s="8"/>
       <c r="K383" s="9"/>
@@ -19341,7 +19341,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="49.65" customHeight="1">
+    <row r="384" spans="1:13" ht="49.7" customHeight="1">
       <c r="A384" s="10" t="s">
         <v>313</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="49.65" customHeight="1">
+    <row r="385" spans="1:13" ht="49.7" customHeight="1">
       <c r="A385" s="10" t="s">
         <v>55</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="49.65" customHeight="1">
+    <row r="386" spans="1:13" ht="49.7" customHeight="1">
       <c r="A386" s="10" t="s">
         <v>63</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>1.85</v>
       </c>
       <c r="I386" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J386" s="8"/>
       <c r="K386" s="9"/>
@@ -19452,7 +19452,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="49.65" customHeight="1">
+    <row r="387" spans="1:13" ht="49.7" customHeight="1">
       <c r="A387" s="10" t="s">
         <v>82</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>1580</v>
       </c>
       <c r="I387" s="8">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="J387" s="8"/>
       <c r="K387" s="9"/>
@@ -19489,7 +19489,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="49.65" customHeight="1">
+    <row r="388" spans="1:13" ht="49.7" customHeight="1">
       <c r="A388" s="10" t="s">
         <v>87</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>1480</v>
       </c>
       <c r="I388" s="8">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="J388" s="8"/>
       <c r="K388" s="9"/>
@@ -19526,7 +19526,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="49.65" customHeight="1">
+    <row r="389" spans="1:13" ht="49.7" customHeight="1">
       <c r="A389" s="10" t="s">
         <v>87</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>560</v>
       </c>
       <c r="I389" s="8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J389" s="8"/>
       <c r="K389" s="9"/>
@@ -19563,7 +19563,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="49.65" customHeight="1">
+    <row r="390" spans="1:13" ht="49.7" customHeight="1">
       <c r="A390" s="10" t="s">
         <v>94</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="49.65" customHeight="1">
+    <row r="391" spans="1:13" ht="49.7" customHeight="1">
       <c r="A391" s="10" t="s">
         <v>99</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="49.65" customHeight="1">
+    <row r="392" spans="1:13" ht="49.7" customHeight="1">
       <c r="A392" s="10" t="s">
         <v>104</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="49.65" customHeight="1">
+    <row r="393" spans="1:13" ht="49.7" customHeight="1">
       <c r="A393" s="10" t="s">
         <v>104</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="49.65" customHeight="1">
+    <row r="394" spans="1:13" ht="49.7" customHeight="1">
       <c r="A394" s="10" t="s">
         <v>109</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="49.65" customHeight="1">
+    <row r="395" spans="1:13" ht="49.7" customHeight="1">
       <c r="A395" s="10" t="s">
         <v>110</v>
       </c>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="M395" s="9"/>
     </row>
-    <row r="396" spans="1:13" ht="49.65" customHeight="1">
+    <row r="396" spans="1:13" ht="49.7" customHeight="1">
       <c r="A396" s="10" t="s">
         <v>115</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="49.65" customHeight="1">
+    <row r="397" spans="1:13" ht="49.7" customHeight="1">
       <c r="A397" s="10" t="s">
         <v>138</v>
       </c>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="M397" s="9"/>
     </row>
-    <row r="398" spans="1:13" ht="49.65" customHeight="1">
+    <row r="398" spans="1:13" ht="49.7" customHeight="1">
       <c r="A398" s="10" t="s">
         <v>143</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="49.65" customHeight="1">
+    <row r="399" spans="1:13" ht="49.7" customHeight="1">
       <c r="A399" s="10" t="s">
         <v>148</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="49.65" customHeight="1">
+    <row r="400" spans="1:13" ht="49.7" customHeight="1">
       <c r="A400" s="10" t="s">
         <v>148</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="49.65" customHeight="1">
+    <row r="401" spans="1:13" ht="49.7" customHeight="1">
       <c r="A401" s="10" t="s">
         <v>155</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="49.65" customHeight="1">
+    <row r="402" spans="1:13" ht="49.7" customHeight="1">
       <c r="A402" s="10" t="s">
         <v>160</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="49.65" customHeight="1">
+    <row r="403" spans="1:13" ht="49.7" customHeight="1">
       <c r="A403" s="10" t="s">
         <v>165</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="49.65" customHeight="1">
+    <row r="404" spans="1:13" ht="49.7" customHeight="1">
       <c r="A404" s="10" t="s">
         <v>177</v>
       </c>
@@ -20112,7 +20112,7 @@
       </c>
       <c r="M404" s="9"/>
     </row>
-    <row r="405" spans="1:13" ht="49.65" customHeight="1">
+    <row r="405" spans="1:13" ht="49.7" customHeight="1">
       <c r="A405" s="10" t="s">
         <v>177</v>
       </c>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="M405" s="9"/>
     </row>
-    <row r="406" spans="1:13" ht="49.65" customHeight="1">
+    <row r="406" spans="1:13" ht="49.7" customHeight="1">
       <c r="A406" s="10" t="s">
         <v>177</v>
       </c>
@@ -20182,7 +20182,7 @@
       </c>
       <c r="M406" s="9"/>
     </row>
-    <row r="407" spans="1:13" ht="49.65" customHeight="1">
+    <row r="407" spans="1:13" ht="49.7" customHeight="1">
       <c r="A407" s="10" t="s">
         <v>177</v>
       </c>
@@ -20217,7 +20217,7 @@
       </c>
       <c r="M407" s="9"/>
     </row>
-    <row r="408" spans="1:13" ht="49.65" customHeight="1">
+    <row r="408" spans="1:13" ht="49.7" customHeight="1">
       <c r="A408" s="10" t="s">
         <v>198</v>
       </c>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="M408" s="9"/>
     </row>
-    <row r="409" spans="1:13" ht="49.65" customHeight="1">
+    <row r="409" spans="1:13" ht="49.7" customHeight="1">
       <c r="A409" s="10" t="s">
         <v>203</v>
       </c>
@@ -20287,7 +20287,7 @@
       </c>
       <c r="M409" s="9"/>
     </row>
-    <row r="410" spans="1:13" ht="49.65" customHeight="1">
+    <row r="410" spans="1:13" ht="49.7" customHeight="1">
       <c r="A410" s="10" t="s">
         <v>203</v>
       </c>
@@ -20322,7 +20322,7 @@
       </c>
       <c r="M410" s="9"/>
     </row>
-    <row r="411" spans="1:13" ht="49.65" customHeight="1">
+    <row r="411" spans="1:13" ht="49.7" customHeight="1">
       <c r="A411" s="10" t="s">
         <v>203</v>
       </c>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="M411" s="9"/>
     </row>
-    <row r="412" spans="1:13" ht="49.65" customHeight="1">
+    <row r="412" spans="1:13" ht="49.7" customHeight="1">
       <c r="A412" s="10" t="s">
         <v>203</v>
       </c>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="M412" s="9"/>
     </row>
-    <row r="413" spans="1:13" ht="49.65" customHeight="1">
+    <row r="413" spans="1:13" ht="49.7" customHeight="1">
       <c r="A413" s="10" t="s">
         <v>203</v>
       </c>
@@ -20427,7 +20427,7 @@
       </c>
       <c r="M413" s="9"/>
     </row>
-    <row r="414" spans="1:13" ht="49.65" customHeight="1">
+    <row r="414" spans="1:13" ht="49.7" customHeight="1">
       <c r="A414" s="10" t="s">
         <v>203</v>
       </c>
@@ -20462,7 +20462,7 @@
       </c>
       <c r="M414" s="5"/>
     </row>
-    <row r="415" spans="1:13" ht="49.65" customHeight="1">
+    <row r="415" spans="1:13" ht="49.7" customHeight="1">
       <c r="A415" s="10" t="s">
         <v>203</v>
       </c>
@@ -20497,7 +20497,7 @@
       </c>
       <c r="M415" s="5"/>
     </row>
-    <row r="416" spans="1:13" ht="49.65" customHeight="1">
+    <row r="416" spans="1:13" ht="49.7" customHeight="1">
       <c r="A416" s="10" t="s">
         <v>203</v>
       </c>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="M416" s="5"/>
     </row>
-    <row r="417" spans="1:13" ht="49.65" customHeight="1">
+    <row r="417" spans="1:13" ht="49.7" customHeight="1">
       <c r="A417" s="10" t="s">
         <v>220</v>
       </c>
@@ -20567,7 +20567,7 @@
       </c>
       <c r="M417" s="5"/>
     </row>
-    <row r="418" spans="1:13" ht="49.65" customHeight="1">
+    <row r="418" spans="1:13" ht="49.7" customHeight="1">
       <c r="A418" s="10" t="s">
         <v>221</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="49.65" customHeight="1">
+    <row r="419" spans="1:13" ht="49.7" customHeight="1">
       <c r="A419" s="10" t="s">
         <v>231</v>
       </c>
@@ -20639,7 +20639,7 @@
       </c>
       <c r="M419" s="5"/>
     </row>
-    <row r="420" spans="1:13" ht="49.65" customHeight="1">
+    <row r="420" spans="1:13" ht="49.7" customHeight="1">
       <c r="A420" s="10" t="s">
         <v>232</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="49.65" customHeight="1">
+    <row r="421" spans="1:13" ht="49.7" customHeight="1">
       <c r="A421" s="10" t="s">
         <v>237</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="49.65" customHeight="1">
+    <row r="422" spans="1:13" ht="49.7" customHeight="1">
       <c r="A422" s="10" t="s">
         <v>242</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="49.65" customHeight="1">
+    <row r="423" spans="1:13" ht="49.7" customHeight="1">
       <c r="A423" s="10" t="s">
         <v>242</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="49.65" customHeight="1">
+    <row r="424" spans="1:13" ht="49.7" customHeight="1">
       <c r="A424" s="10" t="s">
         <v>242</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="49.65" customHeight="1">
+    <row r="425" spans="1:13" ht="49.7" customHeight="1">
       <c r="A425" s="10" t="s">
         <v>270</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="49.65" customHeight="1">
+    <row r="426" spans="1:13" ht="49.7" customHeight="1">
       <c r="A426" s="10" t="s">
         <v>270</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="49.65" customHeight="1">
+    <row r="427" spans="1:13" ht="49.7" customHeight="1">
       <c r="A427" s="10" t="s">
         <v>280</v>
       </c>
@@ -20933,7 +20933,7 @@
       </c>
       <c r="M427" s="5"/>
     </row>
-    <row r="428" spans="1:13" ht="49.65" customHeight="1">
+    <row r="428" spans="1:13" ht="49.7" customHeight="1">
       <c r="A428" s="10" t="s">
         <v>280</v>
       </c>
@@ -20968,7 +20968,7 @@
       </c>
       <c r="M428" s="5"/>
     </row>
-    <row r="429" spans="1:13" ht="49.65" customHeight="1">
+    <row r="429" spans="1:13" ht="49.7" customHeight="1">
       <c r="A429" s="10" t="s">
         <v>280</v>
       </c>
@@ -21003,7 +21003,7 @@
       </c>
       <c r="M429" s="5"/>
     </row>
-    <row r="430" spans="1:13" ht="49.65" customHeight="1">
+    <row r="430" spans="1:13" ht="49.7" customHeight="1">
       <c r="A430" s="10" t="s">
         <v>280</v>
       </c>
@@ -21038,7 +21038,7 @@
       </c>
       <c r="M430" s="5"/>
     </row>
-    <row r="431" spans="1:13" ht="49.65" customHeight="1">
+    <row r="431" spans="1:13" ht="49.7" customHeight="1">
       <c r="A431" s="10" t="s">
         <v>282</v>
       </c>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="M431" s="5"/>
     </row>
-    <row r="432" spans="1:13" ht="49.65" customHeight="1">
+    <row r="432" spans="1:13" ht="49.7" customHeight="1">
       <c r="A432" s="10" t="s">
         <v>283</v>
       </c>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="M432" s="5"/>
     </row>
-    <row r="433" spans="1:13" ht="49.65" customHeight="1">
+    <row r="433" spans="1:13" ht="49.7" customHeight="1">
       <c r="A433" s="10" t="s">
         <v>283</v>
       </c>
@@ -21143,7 +21143,7 @@
       </c>
       <c r="M433" s="5"/>
     </row>
-    <row r="434" spans="1:13" ht="49.65" customHeight="1">
+    <row r="434" spans="1:13" ht="49.7" customHeight="1">
       <c r="A434" s="10" t="s">
         <v>284</v>
       </c>
@@ -21178,7 +21178,7 @@
       </c>
       <c r="M434" s="5"/>
     </row>
-    <row r="435" spans="1:13" ht="49.65" customHeight="1">
+    <row r="435" spans="1:13" ht="49.7" customHeight="1">
       <c r="A435" s="10" t="s">
         <v>287</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="49.65" customHeight="1">
+    <row r="436" spans="1:13" ht="49.7" customHeight="1">
       <c r="A436" s="10" t="s">
         <v>287</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="49.65" customHeight="1">
+    <row r="437" spans="1:13" ht="49.7" customHeight="1">
       <c r="A437" s="10" t="s">
         <v>290</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="49.65" customHeight="1">
+    <row r="438" spans="1:13" ht="49.7" customHeight="1">
       <c r="A438" s="10" t="s">
         <v>291</v>
       </c>
@@ -21324,7 +21324,7 @@
       </c>
       <c r="M438" s="5"/>
     </row>
-    <row r="439" spans="1:13" ht="49.65" customHeight="1">
+    <row r="439" spans="1:13" ht="49.7" customHeight="1">
       <c r="A439" s="10" t="s">
         <v>292</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="49.65" customHeight="1">
+    <row r="440" spans="1:13" ht="49.7" customHeight="1">
       <c r="A440" s="10" t="s">
         <v>297</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="49.65" customHeight="1">
+    <row r="441" spans="1:13" ht="49.7" customHeight="1">
       <c r="A441" s="10" t="s">
         <v>297</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="49.65" customHeight="1">
+    <row r="442" spans="1:13" ht="49.7" customHeight="1">
       <c r="A442" s="10" t="s">
         <v>304</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="49.65" customHeight="1">
+    <row r="443" spans="1:13" ht="49.7" customHeight="1">
       <c r="A443" s="10" t="s">
         <v>312</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="49.65" customHeight="1">
+    <row r="444" spans="1:13" ht="49.7" customHeight="1">
       <c r="A444" s="10" t="s">
         <v>319</v>
       </c>
@@ -21544,7 +21544,7 @@
       </c>
       <c r="M444" s="5"/>
     </row>
-    <row r="445" spans="1:13" ht="49.65" customHeight="1">
+    <row r="445" spans="1:13" ht="49.7" customHeight="1">
       <c r="A445" s="10" t="s">
         <v>320</v>
       </c>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="M445" s="5"/>
     </row>
-    <row r="446" spans="1:13" ht="49.65" customHeight="1">
+    <row r="446" spans="1:13" ht="49.7" customHeight="1">
       <c r="A446" s="10" t="s">
         <v>320</v>
       </c>
@@ -21614,7 +21614,7 @@
       </c>
       <c r="M446" s="5"/>
     </row>
-    <row r="447" spans="1:13" ht="49.65" customHeight="1">
+    <row r="447" spans="1:13" ht="49.7" customHeight="1">
       <c r="A447" s="10" t="s">
         <v>320</v>
       </c>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="M447" s="5"/>
     </row>
-    <row r="448" spans="1:13" ht="49.65" customHeight="1">
+    <row r="448" spans="1:13" ht="49.7" customHeight="1">
       <c r="A448" s="10" t="s">
         <v>320</v>
       </c>
@@ -21684,7 +21684,7 @@
       </c>
       <c r="M448" s="5"/>
     </row>
-    <row r="449" spans="1:13" ht="49.65" customHeight="1">
+    <row r="449" spans="1:13" ht="49.7" customHeight="1">
       <c r="A449" s="10" t="s">
         <v>321</v>
       </c>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="M449" s="5"/>
     </row>
-    <row r="450" spans="1:13" ht="49.65" customHeight="1">
+    <row r="450" spans="1:13" ht="49.7" customHeight="1">
       <c r="A450" s="10" t="s">
         <v>321</v>
       </c>
@@ -21754,7 +21754,7 @@
       </c>
       <c r="M450" s="5"/>
     </row>
-    <row r="451" spans="1:13" ht="49.65" customHeight="1">
+    <row r="451" spans="1:13" ht="49.7" customHeight="1">
       <c r="A451" s="10" t="s">
         <v>321</v>
       </c>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="M451" s="5"/>
     </row>
-    <row r="452" spans="1:13" ht="49.65" customHeight="1">
+    <row r="452" spans="1:13" ht="49.7" customHeight="1">
       <c r="A452" s="10" t="s">
         <v>350</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="49.65" customHeight="1">
+    <row r="453" spans="1:13" ht="49.7" customHeight="1">
       <c r="A453" s="10" t="s">
         <v>350</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="49.65" customHeight="1">
+    <row r="454" spans="1:13" ht="49.7" customHeight="1">
       <c r="A454" s="10" t="s">
         <v>362</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="49.65" customHeight="1">
+    <row r="455" spans="1:13" ht="49.7" customHeight="1">
       <c r="A455" s="10" t="s">
         <v>362</v>
       </c>
@@ -21937,7 +21937,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="456" spans="1:13" ht="49.65" customHeight="1">
+    <row r="456" spans="1:13" ht="49.7" customHeight="1">
       <c r="A456" s="10" t="s">
         <v>383</v>
       </c>
@@ -21972,7 +21972,7 @@
       </c>
       <c r="M456" s="5"/>
     </row>
-    <row r="457" spans="1:13" ht="49.65" customHeight="1">
+    <row r="457" spans="1:13" ht="49.7" customHeight="1">
       <c r="A457" s="10" t="s">
         <v>384</v>
       </c>
@@ -22007,7 +22007,7 @@
       </c>
       <c r="M457" s="5"/>
     </row>
-    <row r="458" spans="1:13" ht="49.65" customHeight="1">
+    <row r="458" spans="1:13" ht="49.7" customHeight="1">
       <c r="A458" s="10" t="s">
         <v>392</v>
       </c>
@@ -22042,7 +22042,7 @@
       </c>
       <c r="M458" s="5"/>
     </row>
-    <row r="459" spans="1:13" ht="49.65" customHeight="1">
+    <row r="459" spans="1:13" ht="49.7" customHeight="1">
       <c r="A459" s="10" t="s">
         <v>392</v>
       </c>
@@ -22077,7 +22077,7 @@
       </c>
       <c r="M459" s="5"/>
     </row>
-    <row r="460" spans="1:13" ht="49.65" customHeight="1">
+    <row r="460" spans="1:13" ht="49.7" customHeight="1">
       <c r="A460" s="10" t="s">
         <v>1030</v>
       </c>
@@ -22112,7 +22112,7 @@
       </c>
       <c r="M460" s="5"/>
     </row>
-    <row r="461" spans="1:13" ht="49.65" customHeight="1">
+    <row r="461" spans="1:13" ht="49.7" customHeight="1">
       <c r="A461" s="10" t="s">
         <v>1030</v>
       </c>
@@ -22147,7 +22147,7 @@
       </c>
       <c r="M461" s="5"/>
     </row>
-    <row r="462" spans="1:13" ht="49.65" customHeight="1">
+    <row r="462" spans="1:13" ht="49.7" customHeight="1">
       <c r="A462" s="10" t="s">
         <v>1031</v>
       </c>
@@ -22182,7 +22182,7 @@
       </c>
       <c r="M462" s="5"/>
     </row>
-    <row r="463" spans="1:13" ht="49.65" customHeight="1">
+    <row r="463" spans="1:13" ht="49.7" customHeight="1">
       <c r="A463" s="10" t="s">
         <v>1031</v>
       </c>
@@ -22217,7 +22217,7 @@
       </c>
       <c r="M463" s="5"/>
     </row>
-    <row r="464" spans="1:13" ht="49.65" customHeight="1">
+    <row r="464" spans="1:13" ht="49.7" customHeight="1">
       <c r="A464" s="10" t="s">
         <v>1031</v>
       </c>
@@ -22252,7 +22252,7 @@
       </c>
       <c r="M464" s="5"/>
     </row>
-    <row r="465" spans="1:13" ht="49.65" customHeight="1">
+    <row r="465" spans="1:13" ht="49.7" customHeight="1">
       <c r="A465" s="10" t="s">
         <v>1031</v>
       </c>
@@ -22287,7 +22287,7 @@
       </c>
       <c r="M465" s="5"/>
     </row>
-    <row r="466" spans="1:13" ht="49.65" customHeight="1">
+    <row r="466" spans="1:13" ht="49.7" customHeight="1">
       <c r="A466" s="10" t="s">
         <v>1032</v>
       </c>
@@ -22322,7 +22322,7 @@
       </c>
       <c r="M466" s="5"/>
     </row>
-    <row r="467" spans="1:13" ht="49.65" customHeight="1">
+    <row r="467" spans="1:13" ht="49.7" customHeight="1">
       <c r="A467" s="10" t="s">
         <v>1033</v>
       </c>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="M467" s="5"/>
     </row>
-    <row r="468" spans="1:13" ht="49.65" customHeight="1">
+    <row r="468" spans="1:13" ht="49.7" customHeight="1">
       <c r="A468" s="10" t="s">
         <v>1033</v>
       </c>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="M468" s="5"/>
     </row>
-    <row r="469" spans="1:13" ht="49.65" customHeight="1">
+    <row r="469" spans="1:13" ht="49.7" customHeight="1">
       <c r="A469" s="10" t="s">
         <v>1033</v>
       </c>
@@ -22427,7 +22427,7 @@
       </c>
       <c r="M469" s="5"/>
     </row>
-    <row r="470" spans="1:13" ht="49.65" customHeight="1">
+    <row r="470" spans="1:13" ht="49.7" customHeight="1">
       <c r="A470" s="10" t="s">
         <v>1034</v>
       </c>
@@ -22462,7 +22462,7 @@
       </c>
       <c r="M470" s="5"/>
     </row>
-    <row r="471" spans="1:13" ht="49.65" customHeight="1">
+    <row r="471" spans="1:13" ht="49.7" customHeight="1">
       <c r="A471" s="10" t="s">
         <v>1035</v>
       </c>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="M471" s="5"/>
     </row>
-    <row r="472" spans="1:13" ht="49.65" customHeight="1">
+    <row r="472" spans="1:13" ht="49.7" customHeight="1">
       <c r="A472" s="10" t="s">
         <v>1035</v>
       </c>
@@ -22532,7 +22532,7 @@
       </c>
       <c r="M472" s="5"/>
     </row>
-    <row r="473" spans="1:13" ht="49.65" customHeight="1">
+    <row r="473" spans="1:13" ht="49.7" customHeight="1">
       <c r="A473" s="10" t="s">
         <v>1035</v>
       </c>
@@ -22567,7 +22567,7 @@
       </c>
       <c r="M473" s="5"/>
     </row>
-    <row r="474" spans="1:13" ht="49.65" customHeight="1">
+    <row r="474" spans="1:13" ht="49.7" customHeight="1">
       <c r="A474" s="10" t="s">
         <v>1035</v>
       </c>
@@ -22602,7 +22602,7 @@
       </c>
       <c r="M474" s="9"/>
     </row>
-    <row r="475" spans="1:13" ht="49.65" customHeight="1">
+    <row r="475" spans="1:13" ht="49.7" customHeight="1">
       <c r="A475" s="10" t="s">
         <v>1035</v>
       </c>
@@ -22637,7 +22637,7 @@
       </c>
       <c r="M475" s="9"/>
     </row>
-    <row r="476" spans="1:13" ht="49.65" customHeight="1">
+    <row r="476" spans="1:13" ht="49.7" customHeight="1">
       <c r="A476" s="10" t="s">
         <v>1035</v>
       </c>
@@ -22672,7 +22672,7 @@
       </c>
       <c r="M476" s="9"/>
     </row>
-    <row r="477" spans="1:13" ht="49.65" customHeight="1">
+    <row r="477" spans="1:13" ht="49.7" customHeight="1">
       <c r="A477" s="10" t="s">
         <v>1036</v>
       </c>
@@ -22707,7 +22707,7 @@
       </c>
       <c r="M477" s="9"/>
     </row>
-    <row r="478" spans="1:13" ht="49.65" customHeight="1">
+    <row r="478" spans="1:13" ht="49.7" customHeight="1">
       <c r="A478" s="10" t="s">
         <v>1036</v>
       </c>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="M478" s="9"/>
     </row>
-    <row r="479" spans="1:13" ht="49.65" customHeight="1">
+    <row r="479" spans="1:13" ht="49.7" customHeight="1">
       <c r="A479" s="10" t="s">
         <v>1036</v>
       </c>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="M479" s="5"/>
     </row>
-    <row r="480" spans="1:13" ht="49.65" customHeight="1">
+    <row r="480" spans="1:13" ht="49.7" customHeight="1">
       <c r="A480" s="10" t="s">
         <v>1036</v>
       </c>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="M480" s="5"/>
     </row>
-    <row r="481" spans="1:13" ht="49.65" customHeight="1">
+    <row r="481" spans="1:13" ht="49.7" customHeight="1">
       <c r="A481" s="10" t="s">
         <v>1037</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="49.65" customHeight="1">
+    <row r="482" spans="1:13" ht="49.7" customHeight="1">
       <c r="A482" s="10" t="s">
         <v>1028</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="49.65" customHeight="1">
+    <row r="483" spans="1:13" ht="49.7" customHeight="1">
       <c r="A483" s="10"/>
       <c r="B483" s="4"/>
       <c r="C483" s="5"/>
@@ -22901,7 +22901,7 @@
       <c r="L483" s="11"/>
       <c r="M483" s="5"/>
     </row>
-    <row r="484" spans="1:13" ht="49.65" customHeight="1">
+    <row r="484" spans="1:13" ht="49.7" customHeight="1">
       <c r="A484" s="10"/>
       <c r="B484" s="4"/>
       <c r="C484" s="5"/>
@@ -22916,7 +22916,7 @@
       <c r="L484" s="12"/>
       <c r="M484" s="5"/>
     </row>
-    <row r="485" spans="1:13" ht="49.65" customHeight="1">
+    <row r="485" spans="1:13" ht="49.7" customHeight="1">
       <c r="A485" s="10"/>
       <c r="B485" s="4"/>
       <c r="C485" s="5"/>
@@ -22931,7 +22931,7 @@
       <c r="L485" s="11"/>
       <c r="M485" s="5"/>
     </row>
-    <row r="486" spans="1:13" ht="49.65" customHeight="1">
+    <row r="486" spans="1:13" ht="49.7" customHeight="1">
       <c r="A486" s="10"/>
       <c r="B486" s="4"/>
       <c r="C486" s="5"/>
@@ -22946,7 +22946,7 @@
       <c r="L486" s="12"/>
       <c r="M486" s="5"/>
     </row>
-    <row r="487" spans="1:13" ht="49.65" customHeight="1">
+    <row r="487" spans="1:13" ht="49.7" customHeight="1">
       <c r="A487" s="10"/>
       <c r="B487" s="4"/>
       <c r="C487" s="5"/>
@@ -22961,7 +22961,7 @@
       <c r="L487" s="11"/>
       <c r="M487" s="5"/>
     </row>
-    <row r="488" spans="1:13" ht="49.65" customHeight="1">
+    <row r="488" spans="1:13" ht="49.7" customHeight="1">
       <c r="A488" s="10"/>
       <c r="B488" s="4"/>
       <c r="C488" s="5"/>
@@ -22977,6 +22977,7 @@
       <c r="M488" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I488"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
@@ -22994,9 +22995,9 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
